--- a/xlsx/_wiki_魅影_intext.xlsx
+++ b/xlsx/_wiki_魅影_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="107">
   <si>
     <t>魅影</t>
   </si>
@@ -312,12 +312,6 @@
   </si>
   <si>
     <t>阅读</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Project:%E4%B8%8A%E4%BC%A0</t>
-  </si>
-  <si>
-    <t>上传图像或多媒体文件[u]</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Erik_(The_Phantom_of_the_Opera)</t>
@@ -690,7 +684,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1983,29 +1977,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="s">
-        <v>0</v>
-      </c>
-      <c r="C57" t="s">
-        <v>1</v>
-      </c>
-      <c r="D57" t="n">
-        <v>56</v>
-      </c>
-      <c r="E57" t="s">
-        <v>107</v>
-      </c>
-      <c r="F57" t="s">
-        <v>108</v>
-      </c>
-      <c r="G57" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/xlsx/_wiki_魅影_intext.xlsx
+++ b/xlsx/_wiki_魅影_intext.xlsx
@@ -23,91 +23,91 @@
     <t>https://zh.wikipedia.org/zh-cn/%E9%AD%85%E5%BD%B1</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%8C%E5%8A%87%E9%AD%85%E5%BD%B1_(%E6%B6%88%E6%AD%A7%E7%BE%A9)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%AD%8C%E5%8A%87%E9%AD%85%E5%BD%B1_(%E6%B6%88%E6%AD%A7%E7%BE%A9)</t>
   </si>
   <si>
     <t>歌剧魅影 (消歧义)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%8C%E5%8A%87%E9%AD%85%E5%BD%B1</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%AD%8C%E5%8A%87%E9%AD%85%E5%BD%B1</t>
   </si>
   <si>
     <t>歌剧魅影</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%96%AF%E9%A0%93%C2%B7%E5%8B%92%E8%83%A1</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8D%A1%E6%96%AF%E9%A0%93%C2%B7%E5%8B%92%E8%83%A1</t>
   </si>
   <si>
     <t>加斯东·勒鲁</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%B2%E6%A8%82%E5%AE%B6</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%81%B2%E6%A8%82%E5%AE%B6</t>
   </si>
   <si>
     <t>声乐家</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%9C%E6%9B%B2%E5%AE%B6</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%BD%9C%E6%9B%B2%E5%AE%B6</t>
   </si>
   <si>
     <t>作曲家</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%97%9D%E8%A1%93%E5%AE%B6</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%97%9D%E8%A1%93%E5%AE%B6</t>
   </si>
   <si>
     <t>艺术家</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AF%89%E5%B8%AB</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%BB%BA%E7%AF%89%E5%B8%AB</t>
   </si>
   <si>
     <t>建筑师</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AD%94%E8%A1%93%E5%B8%AB</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%AD%94%E8%A1%93%E5%B8%AB</t>
   </si>
   <si>
     <t>魔术师</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E8%A6%81%E4%BB%96%E4%BA%BA</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%87%8D%E8%A6%81%E4%BB%96%E4%BA%BA</t>
   </si>
   <si>
     <t>重要他人</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
     <t>法国</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%9C%E5%AE%B6</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%BD%9C%E5%AE%B6</t>
   </si>
   <si>
     <t>作家</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%AA%AA</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%B0%8F%E8%AA%AA</t>
   </si>
   <si>
     <t>小说</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E9%AD%AF%C2%B7%E6%B4%9B%E4%BC%8A%C2%B7%E9%9F%8B%E4%BC%AF</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%AE%89%E5%BE%B7%E9%AD%AF%C2%B7%E6%B4%9B%E4%BC%8A%C2%B7%E9%9F%8B%E4%BC%AF</t>
   </si>
   <si>
     <t>安德鲁·劳埃德·韦伯</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%8C%E5%8A%87%E9%AD%85%E5%BD%B1_(%E9%9F%B3%E6%A8%82%E5%8A%87)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%AD%8C%E5%8A%87%E9%AD%85%E5%BD%B1_(%E9%9F%B3%E6%A8%82%E5%8A%87)</t>
   </si>
   <si>
     <t>歌剧魅影 (音乐剧)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E6%AD%8C%E5%8A%87%E9%99%A2</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%B7%B4%E9%BB%8E%E6%AD%8C%E5%8A%87%E9%99%A2</t>
   </si>
   <si>
     <t>巴黎歌剧院</t>
@@ -125,31 +125,31 @@
     <t>en-Viscount Raoul de Chagny</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%97%C2%B7%E9%92%B1%E5%B0%BC</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%9C%97%C2%B7%E9%92%B1%E5%B0%BC</t>
   </si>
   <si>
     <t>朗·钱尼</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E5%B0%94%E6%96%AF%C2%B7%E4%B8%B9%E6%96%AF</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%9F%A5%E5%B0%94%E6%96%AF%C2%B7%E4%B8%B9%E6%96%AF</t>
   </si>
   <si>
     <t>查尔斯·丹斯</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%82%91%E6%8B%89%E5%BE%B7%C2%B7%E5%B7%B4%E7%89%B9%E5%8B%92</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%82%91%E6%8B%89%E5%BE%B7%C2%B7%E5%B7%B4%E7%89%B9%E5%8B%92</t>
   </si>
   <si>
     <t>杰拉德·巴特勒</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%8C%E5%89%A7%E9%AD%85%E5%BD%B1_(1925%E5%B9%B4%E7%94%B5%E5%BD%B1)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%AD%8C%E5%89%A7%E9%AD%85%E5%BD%B1_(1925%E5%B9%B4%E7%94%B5%E5%BD%B1)</t>
   </si>
   <si>
     <t>歌剧魅影 (1925年电影)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%8C%E5%8A%87%E9%AD%85%E5%BD%B1_(2004%E5%B9%B4%E9%9B%BB%E5%BD%B1)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%AD%8C%E5%8A%87%E9%AD%85%E5%BD%B1_(2004%E5%B9%B4%E9%9B%BB%E5%BD%B1)</t>
   </si>
   <si>
     <t>歌剧魅影 (2004年电影)</t>
@@ -167,19 +167,19 @@
     <t>en-Phantom (musical)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E4%BC%8A%C2%B7%E9%9F%8B%E4%BC%AF</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%B4%9B%E4%BC%8A%C2%B7%E9%9F%8B%E4%BC%AF</t>
   </si>
   <si>
     <t>劳埃德·韦伯</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
     <t>美国</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%93%88%E9%A0%93</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%9B%BC%E5%93%88%E9%A0%93</t>
   </si>
   <si>
     <t>曼哈顿</t>
@@ -191,13 +191,13 @@
     <t>en-Arthur Kopit</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/IMDb</t>
+    <t>https://zh.wikipedia.org/zh-cn/IMDb</t>
   </si>
   <si>
     <t>IMDb</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/BBC</t>
+    <t>https://zh.wikipedia.org/zh-cn/BBC</t>
   </si>
   <si>
     <t>BBC</t>
@@ -233,7 +233,7 @@
     <t>en-Love Never Dies (musical)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9C%E5%8D%8A%E6%AD%8C%E8%81%B2_(1937%E5%B9%B4%E9%9B%BB%E5%BD%B1)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%A4%9C%E5%8D%8A%E6%AD%8C%E8%81%B2_(1937%E5%B9%B4%E9%9B%BB%E5%BD%B1)</t>
   </si>
   <si>
     <t>夜半歌声 (1937年电影)</t>
@@ -287,10 +287,10 @@
     <t>en-The Phantom of the Opera (1990 miniseries)</t>
   </si>
   <si>
-    <t>https://en.wikipedia.org/wiki/The_Phantom_Lover</t>
-  </si>
-  <si>
-    <t>en-The Phantom Lover</t>
+    <t>https://zh.wikipedia.org/zh-cn/The_Phantom_Lover</t>
+  </si>
+  <si>
+    <t>The Phantom Lover</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/The_Phantom_of_the_Opera_(1998_film)</t>
@@ -305,7 +305,7 @@
     <t>en-The Phantom of the Opera at the Royal Albert Hall</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%91%9E%E5%85%8B_(%E6%AD%8C%E5%8A%87%E9%AD%85%E5%BD%B1)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%89%BE%E7%91%9E%E5%85%8B_(%E6%AD%8C%E5%8A%87%E9%AD%85%E5%BD%B1)</t>
   </si>
   <si>
     <t>浏览条目正文[c]</t>
@@ -1790,7 +1790,7 @@
         <v>91</v>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:7">
